--- a/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>8f4576f4-8d42-46da-b0f3-51c516eb92eb</t>
+    <t>a584c6d3-d3fe-46e2-b983-3743ac8b1e14</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>a584c6d3-d3fe-46e2-b983-3743ac8b1e14</t>
+    <t>e92c4bc6-24a2-42bc-8d78-19f799746ffe</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>e92c4bc6-24a2-42bc-8d78-19f799746ffe</t>
+    <t>502e1505-5261-4c88-bebc-d2d33bc4e2a7</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>502e1505-5261-4c88-bebc-d2d33bc4e2a7</t>
+    <t>3263da9a-7dfc-4e63-ab0d-1483d795d175</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>3263da9a-7dfc-4e63-ab0d-1483d795d175</t>
+    <t>c3daed3f-4517-4435-b645-8f74512f854c</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>c3daed3f-4517-4435-b645-8f74512f854c</t>
+    <t>3e7849ca-8dd8-40b5-8934-dba68e3ef571</t>
   </si>
   <si>
     <t>AMAPÁ</t>
